--- a/設計書/ユースケース関係/ユースケースシナリオ(システム).xlsx
+++ b/設計書/ユースケース関係/ユースケースシナリオ(システム).xlsx
@@ -5,27 +5,26 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AliceWhite\OneDrive\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\travelplan\設計書\ユースケース関係\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目的一覧をDBから取得する" sheetId="2" r:id="rId1"/>
     <sheet name="目的地一覧をDBへ更新する" sheetId="6" r:id="rId2"/>
-    <sheet name="目的地一覧をDBから取得する " sheetId="3" r:id="rId3"/>
-    <sheet name="質問一覧をDBから取得する" sheetId="5" r:id="rId4"/>
-    <sheet name="質問の回答をもとにお勧めの目的をDBから取得する" sheetId="8" r:id="rId5"/>
-    <sheet name="旅行プランの自動生成をする" sheetId="9" r:id="rId6"/>
-    <sheet name="プランの編集結果をもとに移動時間の再計算をする" sheetId="10" r:id="rId7"/>
+    <sheet name="質問一覧をDBから取得する" sheetId="5" r:id="rId3"/>
+    <sheet name="質問の回答をもとにお勧めの目的をDBから取得する" sheetId="8" r:id="rId4"/>
+    <sheet name="旅行プランの自動生成をする" sheetId="9" r:id="rId5"/>
+    <sheet name="プランの編集結果をもとに移動時間の再計算をする" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>ユースケース名</t>
     <rPh sb="6" eb="7">
@@ -160,79 +159,6 @@
     <t>例外</t>
     <rPh sb="0" eb="2">
       <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旅行の目的地一覧をDBから取得する</t>
-    <rPh sb="0" eb="2">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目的地一覧取得用のURLが投げられた場合</t>
-    <rPh sb="0" eb="2">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.旅行の目的地をDBから全件取得する
-2.１の結果を返す</t>
-    <rPh sb="2" eb="4">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1161,7 +1087,7 @@
   </sheetPr>
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1272,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -1294,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="93.75" x14ac:dyDescent="0.4">
@@ -1302,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -1316,7 +1242,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1328,12 +1254,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
+  <sheetPr codeName="Sheet5">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +1277,7 @@
       </c>
       <c r="C2" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v xml:space="preserve">目的地一覧をDBから取得する </v>
+        <v>質問一覧をDBから取得する</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
@@ -1402,9 +1328,7 @@
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1414,91 +1338,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>質問一覧をDBから取得する</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1531,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -1553,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -1561,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -1583,13 +1422,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1600,7 +1437,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5"/>
     </row>
@@ -1618,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1640,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="112.5" x14ac:dyDescent="0.4">
@@ -1648,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
@@ -1656,7 +1493,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1672,12 +1509,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1704,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
@@ -1726,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="75" x14ac:dyDescent="0.4">
@@ -1734,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
@@ -1742,7 +1579,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">

--- a/設計書/ユースケース関係/ユースケースシナリオ(システム).xlsx
+++ b/設計書/ユースケース関係/ユースケースシナリオ(システム).xlsx
@@ -9,22 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="目的一覧をDBから取得する" sheetId="2" r:id="rId1"/>
-    <sheet name="目的地一覧をDBへ更新する" sheetId="6" r:id="rId2"/>
-    <sheet name="質問一覧をDBから取得する" sheetId="5" r:id="rId3"/>
-    <sheet name="質問の回答をもとにお勧めの目的をDBから取得する" sheetId="8" r:id="rId4"/>
-    <sheet name="旅行プランの自動生成をする" sheetId="9" r:id="rId5"/>
-    <sheet name="プランの編集結果をもとに移動時間の再計算をする" sheetId="10" r:id="rId6"/>
+    <sheet name="見出し" sheetId="11" r:id="rId1"/>
+    <sheet name="目的一覧をDBから取得する" sheetId="2" r:id="rId2"/>
+    <sheet name="目的地一覧をDBへ更新する" sheetId="6" r:id="rId3"/>
+    <sheet name="質問一覧をDBから取得する" sheetId="5" r:id="rId4"/>
+    <sheet name="質問の回答をもとにお勧めの目的をDBから取得する" sheetId="8" r:id="rId5"/>
+    <sheet name="旅行プランの自動生成をする" sheetId="9" r:id="rId6"/>
+    <sheet name="プランの編集結果をもとに移動時間の再計算をする" sheetId="10" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">見出し!$A$1:$E$48</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
   <si>
     <t>ユースケース名</t>
     <rPh sb="6" eb="7">
@@ -617,12 +621,42 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>システム名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とらべる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケースシナリオ(システム)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケースシナリオ
+(システム)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +669,36 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -652,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -744,11 +808,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -767,6 +965,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,14 +1318,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B1:C9"/>
+  <dimension ref="A20:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:E29"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:E29"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1098,83 +1427,390 @@
     <col min="3" max="3" width="75.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="18"/>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="18"/>
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="24">
+        <v>43839</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+      <c r="C6" s="1" t="str">
+        <f ca="1">RIGHT(CELL("filename",A5),LEN(CELL("filename",A5))-FIND("]",CELL("filename",A5)))</f>
         <v>目的一覧をDBから取得する</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="18"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:C9"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1183,85 +1819,397 @@
     <col min="3" max="3" width="75.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="18"/>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="18"/>
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="24">
+        <v>43839</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C6" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>目的地一覧をDBへ更新する</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="18"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B1:C9"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1270,326 +2218,1579 @@
     <col min="3" max="3" width="75.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="18"/>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="18"/>
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="24">
+        <v>43839</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C6" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>質問一覧をDBから取得する</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="18"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B1:C9"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.625" customWidth="1"/>
+    <col min="3" max="3" width="75.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="18"/>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="18"/>
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="24">
+        <v>43839</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C6" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>質問の回答をもとにお勧めの目的をDBから取得する</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="18"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.625" customWidth="1"/>
+    <col min="3" max="3" width="75.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="18"/>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="18"/>
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="24">
+        <v>43839</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C6" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>旅行プランの自動生成をする</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="18"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="18"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="18"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="22"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C9"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.625" customWidth="1"/>
+    <col min="3" max="3" width="75.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="18"/>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="18"/>
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="24">
+        <v>43839</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C6" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>プランの編集結果をもとに移動時間の再計算をする</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="75" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="18"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="18"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="18"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="18"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="18"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="22"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>